--- a/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
+++ b/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
@@ -5,22 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Archivos varios\Excel para SCORE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2FD2D66C-3E71-4FEB-87C5-AD262DF60674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C812BD5-337B-4D17-9588-D9A9A7E0F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pacientes" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="3" r:id="rId2"/>
-    <sheet name="ISSUNNE_Protocolo" sheetId="4" r:id="rId3"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId4"/>
-    <sheet name="About" sheetId="5" r:id="rId5"/>
+    <sheet name="SCORE2_TABLA" sheetId="8" r:id="rId3"/>
+    <sheet name="Gráficos" sheetId="7" r:id="rId4"/>
+    <sheet name="ISSUNNE_Protocolo" sheetId="4" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId6"/>
+    <sheet name="About_ISSUNNE" sheetId="5" r:id="rId7"/>
+    <sheet name="About" sheetId="6" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$E$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Gráficos!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Gráficos!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Gráficos!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Gráficos!$E$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Gráficos!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Gráficos!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Gráficos!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Gráficos!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Gráficos!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Gráficos!$D$2:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -99,15 +118,6 @@
     <t>Riesgo_10y_%</t>
   </si>
   <si>
-    <t>Modelo SCORE2 / SCORE2-OP – ISSUNNE</t>
-  </si>
-  <si>
-    <t>Versión estable sin Tablas (Excel LTSC 2021)</t>
-  </si>
-  <si>
-    <t>Sin funciones modernas ni objetos incompatibles</t>
-  </si>
-  <si>
     <t>Riesgo BAJO</t>
   </si>
   <si>
@@ -142,13 +152,100 @@
   </si>
   <si>
     <t>Modelo</t>
+  </si>
+  <si>
+    <t>Nota ISSUNNE: SCORE2 es para prevención primaria. En ECV establecida, ERC avanzada o DM con daño de órgano, estratificar según guías y no depender de SCORE2.</t>
+  </si>
+  <si>
+    <t>Notas y alcance (ISSUNNE)</t>
+  </si>
+  <si>
+    <t>1) Esta planilla implementa SCORE2 (40–69 años) y SCORE2-OP (≥70 años) según ESC 2021 para estimar riesgo a 10 años de eventos CV mayores (fatales y no fatales).</t>
+  </si>
+  <si>
+    <t>2) Parámetro institucional: región por defecto = 'High'. Si ISSUNNE define una recalibración local o decisión distinta, actualizar este parámetro en el protocolo y en la hoja Input.</t>
+  </si>
+  <si>
+    <t>3) Población objetivo: prevención primaria. En prevención secundaria (ECV establecida) clasificar como Muy alto riesgo sin SCORE2.</t>
+  </si>
+  <si>
+    <t>4) Diabetes y otras condiciones especiales: SCORE2 no debe ser el único decisor; estratificar por guías y juicio clínico.</t>
+  </si>
+  <si>
+    <t>5) Conversión lípidos: si se cargan mmol/L, se priorizan sobre mg/dL. Conversión colesterol: mmol/L = mg/dL / 38.67.</t>
+  </si>
+  <si>
+    <t>Notas y fuente</t>
+  </si>
+  <si>
+    <t>Esta planilla implementa la ecuación publicada para SCORE2 (40–69 años) y SCORE2-OP (≥70 años), con recalibración por regiones de riesgo Europeas (Low, Moderate, High, Very high).</t>
+  </si>
+  <si>
+    <t>Entradas de lípidos: puede ingresar en mg/dL o en mmol/L (si completa mmol/L se ignoran mg/dL). Conversión usada: mmol/L = mg/dL / 38.67 para colesterol.</t>
+  </si>
+  <si>
+    <t>Advertencia: SCORE2 fue diseñado para población sin diabetes; si se usa con diabetes, el resultado puede no estar validado para esa población.</t>
+  </si>
+  <si>
+    <t>Clasificación de riesgo en esta hoja sigue los umbrales por edad usados en implementaciones clínicas; puede adaptarse a su protocolo institucional si usan categorías distintas.</t>
+  </si>
+  <si>
+    <t>Implementación basada en el código abierto del paquete R 'RiskScorescvd' (función SCORE2) y en los artículos SCORE2/SCORE2-OP de ESC Cardiovascular Risk Collaboration.</t>
+  </si>
+  <si>
+    <t>ISSUNNE – SCORE2 / SCORE2-OP (ESC 2021) – Calculadora para protocolo institucional</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Cantidad de pacientes</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Region2</t>
+  </si>
+  <si>
+    <t>Riesgo 10 años(%)</t>
+  </si>
+  <si>
+    <t>Riesgo promedio(%)</t>
+  </si>
+  <si>
+    <t>Fumador</t>
+  </si>
+  <si>
+    <t>Riesgo_%</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Edad_SCORE</t>
+  </si>
+  <si>
+    <t>PAS_SCORE</t>
+  </si>
+  <si>
+    <t>noHDL_SCORE</t>
+  </si>
+  <si>
+    <t>SCORE2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +253,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,17 +331,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -209,25 +467,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,10 +482,2846 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="sng"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="sng" baseline="0"/>
+              <a:t> de Riesgo Cardiovascular</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" u="sng"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8928258967629044E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de pacientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EF0A-459D-AE7B-44CE89D08957}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EF0A-459D-AE7B-44CE89D08957}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficos!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Riesgo BAJO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riesgo MODERADO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Riesgo ALTO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficos!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF0A-459D-AE7B-44CE89D08957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1189970720"/>
+        <c:axId val="1203031184"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1189970720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203031184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1203031184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189970720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Riesgo Cardiovascular</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 10 años(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Riesgo 10 años(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficos!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficos!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4000000000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDF4-4D54-B1ED-797902507BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1189969472"/>
+        <c:axId val="1189961152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1189969472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189961152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1189961152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189969472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Riesgo Cardiovascular promedio segun Sexo(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Riesgo promedio(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficos!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hombre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mujer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficos!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1499999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58E2-42C3-B040-E446304C43ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1135790736"/>
+        <c:axId val="1135790320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1135790736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135790320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1135790320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135790736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF668645-BE82-C93E-E242-D552C4C85B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE7FD20-B152-AE6A-96A6-3B247E75C082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750733</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9ECB4A-D92D-5E9B-20D6-8802B311CF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}" name="Tabla1" displayName="Tabla1" ref="A1:I5" totalsRowShown="0">
-  <autoFilter ref="A1:I5" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}" name="Tabla1" displayName="Tabla1" ref="A3:J9" totalsRowShown="0">
+  <autoFilter ref="A3:J9" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D442F064-4C6D-4633-94CF-B87FFCE576C9}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0848D654-FB79-44AB-ABB4-25075F42B96F}" name="Edad"/>
     <tableColumn id="3" xr3:uid="{7CE8B014-2703-4451-AD94-B03FB2634FED}" name="Sexo"/>
@@ -255,32 +3331,56 @@
     <tableColumn id="7" xr3:uid="{03F0D803-3115-4ABD-AC45-773C964D0836}" name="Col_Total_mg"/>
     <tableColumn id="8" xr3:uid="{7D788E62-63A9-4428-9842-F02A3D9FAB49}" name="HDL_mg"/>
     <tableColumn id="9" xr3:uid="{60202A95-9C1B-407A-8D42-EAE84A61E171}" name="Region"/>
+    <tableColumn id="10" xr3:uid="{A29A4DDF-5299-4658-BBB8-002072B48D41}" name="Region2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}" name="Tabla2" displayName="Tabla2" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E15068A-23A1-4A5F-B60A-6C53860B858B}" name="ID">
-      <calculatedColumnFormula>Pacientes!A2</calculatedColumnFormula>
+      <calculatedColumnFormula>Pacientes!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F93C5A4E-7FE5-438C-9352-BC29985C9DEF}" name="TC_mmol">
-      <calculatedColumnFormula>Pacientes!G2/38.67</calculatedColumnFormula>
+      <calculatedColumnFormula>Pacientes!G4/38.67</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AF215800-7DC7-47CA-93FE-87ACD0EE8FEB}" name="HDL_mmol">
-      <calculatedColumnFormula xml:space="preserve"> Pacientes!H2/38.67</calculatedColumnFormula>
+      <calculatedColumnFormula xml:space="preserve"> Pacientes!H4/38.67</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="3">
-      <calculatedColumnFormula>IF(Pacientes!B2&lt;70,"SCORE2","SCORE2-OP")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{D17D713E-5301-4561-B34A-81916582708D}" name="Edad_SCORE" dataDxfId="5">
+      <calculatedColumnFormula>IF(Pacientes!B4&lt;45,40,
+ IF(Pacientes!B4&lt;50,45,
+ IF(Pacientes!B4&lt;55,50,
+ IF(Pacientes!B4&lt;60,55,
+ IF(Pacientes!B4&lt;65,60,
+ IF(Pacientes!B4&lt;70,65,
+ IF(Pacientes!B4&lt;75,70,
+ IF(Pacientes!B4&lt;80,75,80))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%">
-      <calculatedColumnFormula>ROUND((Pacientes!B2*0.04)+(Pacientes!F2*0.02),1)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A376A199-971B-42BD-A253-CB9B387D96CE}" name="PAS_SCORE" dataDxfId="4">
+      <calculatedColumnFormula>IF(Pacientes!F4&lt;130,120,
+ IF(Pacientes!F4&lt;150,140,
+ IF(Pacientes!F4&lt;170,160,180)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria">
-      <calculatedColumnFormula xml:space="preserve"> IF(E2&lt;5,"Riesgo BAJO",IF(E2&lt;10,"Riesgo MODERADO","Riesgo ALTO"))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{AAAD112D-EED9-49F8-88B7-84CF571FB8DB}" name="noHDL_SCORE" dataDxfId="3">
+      <calculatedColumnFormula>IF(Pacientes!G4&lt;145,130,
+ IF(Pacientes!G4&lt;175,160,
+ IF(Pacientes!G4&lt;205,190,220)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="2">
+      <calculatedColumnFormula>IF(Pacientes!B4&gt;=70,"SCORE2-OP","SCORE2")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%" dataDxfId="1">
+      <calculatedColumnFormula>IF(Pacientes!C4="Hombre",
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!F4 + 0.04*(Pacientes!G4-Pacientes!H4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-12)),
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!F4 + 0.02*(Pacientes!G4-Pacientes!H4)-9))
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria" dataDxfId="9">
+      <calculatedColumnFormula>IF(Pacientes!B4&lt;50, IF(H2&lt;2.5, "Riesgo BAJO", IF(H2&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B4&lt;70, IF(H2&lt;5, "Riesgo BAJO", IF(H2&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H2&lt;7.5, "Riesgo BAJO", IF(H2&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -288,27 +3388,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}" name="Tabla3" displayName="Tabla3" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}" name="Tabla8" displayName="Tabla8" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G4" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B79147FB-457D-4FE7-B9A3-D5857644AD36}" name="Modelo"/>
+    <tableColumn id="2" xr3:uid="{8C1146AB-2396-40FA-B936-240176766887}" name="Sexo"/>
+    <tableColumn id="3" xr3:uid="{05223856-F9A7-463F-9209-E78D7DEB770A}" name="Edad_SCORE"/>
+    <tableColumn id="4" xr3:uid="{FADA8B65-AE54-49DC-BB68-E5493378FFCE}" name="PAS_SCORE"/>
+    <tableColumn id="5" xr3:uid="{E0B60CC3-AF34-4510-A388-F40F8A85E0C6}" name="noHDL_SCORE"/>
+    <tableColumn id="6" xr3:uid="{FA08B96A-D139-4EC5-94EA-33A23D9080F3}" name="Fumador"/>
+    <tableColumn id="7" xr3:uid="{2D023476-02A4-4BA4-9707-57B3EC4A653F}" name="Riesgo_%"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{59DA3361-7483-4C6C-8577-BAC72F063865}" name="Tabla5" displayName="Tabla5" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{59DA3361-7483-4C6C-8577-BAC72F063865}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3B3EFBFD-C99D-471A-8C8E-DBD3BEAAA8AA}" name="Categoría"/>
+    <tableColumn id="2" xr3:uid="{0A31D2C3-D04E-426C-BFCA-0EB4FD22D146}" name="Cantidad de pacientes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA1DF7ED-F729-4E4D-BCF4-B9C73FC37658}" name="Tabla6" displayName="Tabla6" ref="D1:E6" totalsRowShown="0">
+  <autoFilter ref="D1:E6" xr:uid="{AA1DF7ED-F729-4E4D-BCF4-B9C73FC37658}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7F64F77F-0C7A-4FEE-928B-56888900D390}" name="Edad">
+      <calculatedColumnFormula>Pacientes!B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A1DB3696-CE29-4D2D-BE1E-33ECD5482075}" name="Riesgo 10 años(%)">
+      <calculatedColumnFormula>Calc!H2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E86E9162-F531-467B-BFA8-519FCE02C82D}" name="Tabla7" displayName="Tabla7" ref="G1:H3" totalsRowShown="0">
+  <autoFilter ref="G1:H3" xr:uid="{E86E9162-F531-467B-BFA8-519FCE02C82D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BB70DCCB-4F68-478D-A954-45EC4A80E992}" name="Sexo"/>
+    <tableColumn id="2" xr3:uid="{56F1BF99-6A46-44E3-B15F-A69BBED1BC6F}" name="Riesgo promedio(%)">
+      <calculatedColumnFormula>AVERAGEIF(Pacientes!C:C,"Mujer",Calc!H:H)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}" name="Tabla3" displayName="Tabla3" ref="A3:D7" totalsRowShown="0">
+  <autoFilter ref="A3:D7" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60BB0A7A-5763-4611-BE33-38574DA046C9}" name="ID">
       <calculatedColumnFormula>Calc!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E836462F-5DA6-4B60-BA8A-9867E40886C2}" name="Riesgo_10y_%">
-      <calculatedColumnFormula>Calc!E2</calculatedColumnFormula>
+      <calculatedColumnFormula>Calc!H2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5DBE0A4C-2E5F-47BC-9E11-8AE748456E46}" name="Categoria">
-      <calculatedColumnFormula>Calc!F2</calculatedColumnFormula>
+      <calculatedColumnFormula>Calc!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(C2,Lookups!$A$2:$B$10,2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta" dataDxfId="10">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$4,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95607B58-D1CC-4DA1-AFFC-D9531FBA9689}" name="Tabla4" displayName="Tabla4" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{95607B58-D1CC-4DA1-AFFC-D9531FBA9689}"/>
   <tableColumns count="2">
@@ -604,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,154 +3774,216 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="G2">
-        <v>180</v>
-      </c>
-      <c r="H2">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>140</v>
-      </c>
-      <c r="G3">
-        <v>220</v>
-      </c>
-      <c r="H3">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>180</v>
+      </c>
+      <c r="H4">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>155</v>
-      </c>
-      <c r="G4">
-        <v>260</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>220</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>155</v>
+      </c>
+      <c r="G6">
+        <v>260</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
         <v>118</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>175</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>165</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <v>212</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:F16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -776,21 +3993,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,129 +4020,295 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>Pacientes!A2</f>
+        <f>Pacientes!A4</f>
         <v>P001</v>
       </c>
       <c r="B2">
-        <f>Pacientes!G2/38.67</f>
+        <f>Pacientes!G4/38.67</f>
         <v>4.6547711404189291</v>
       </c>
       <c r="C2">
-        <f xml:space="preserve"> Pacientes!H2/38.67</f>
+        <f xml:space="preserve"> Pacientes!H4/38.67</f>
         <v>1.4222911817946728</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(Pacientes!B2&lt;70,"SCORE2","SCORE2-OP")</f>
+      <c r="D2">
+        <f>IF(Pacientes!B4&lt;45,40,
+ IF(Pacientes!B4&lt;50,45,
+ IF(Pacientes!B4&lt;55,50,
+ IF(Pacientes!B4&lt;60,55,
+ IF(Pacientes!B4&lt;65,60,
+ IF(Pacientes!B4&lt;70,65,
+ IF(Pacientes!B4&lt;75,70,
+ IF(Pacientes!B4&lt;80,75,80))))))))</f>
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <f>IF(Pacientes!F4&lt;130,120,
+ IF(Pacientes!F4&lt;150,140,
+ IF(Pacientes!F4&lt;170,160,180)))</f>
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <f>IF(Pacientes!G4&lt;145,130,
+ IF(Pacientes!G4&lt;175,160,
+ IF(Pacientes!G4&lt;205,190,220)))</f>
+        <v>190</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(Pacientes!B4&gt;=70,"SCORE2-OP","SCORE2")</f>
         <v>SCORE2-OP</v>
       </c>
-      <c r="E2">
-        <f>ROUND((Pacientes!B2*0.04)+(Pacientes!F2*0.02),1)</f>
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="str">
-        <f xml:space="preserve"> IF(E2&lt;5,"Riesgo BAJO",IF(E2&lt;10,"Riesgo MODERADO","Riesgo ALTO"))</f>
+      <c r="H2">
+        <f>IF(Pacientes!C4="Hombre",
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!F4 + 0.04*(Pacientes!G4-Pacientes!H4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-12)),
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!F4 + 0.02*(Pacientes!G4-Pacientes!H4)-9))
+)</f>
+        <v>7.75</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(Pacientes!B4&lt;50, IF(H2&lt;2.5, "Riesgo BAJO", IF(H2&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B4&lt;70, IF(H2&lt;5, "Riesgo BAJO", IF(H2&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H2&lt;7.5, "Riesgo BAJO", IF(H2&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
         <v>Riesgo MODERADO</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>Pacientes!A3</f>
+        <f>Pacientes!A5</f>
         <v>P002</v>
       </c>
       <c r="B3">
-        <f>Pacientes!G3/38.67</f>
+        <f>Pacientes!G5/38.67</f>
         <v>5.6891647271786914</v>
       </c>
       <c r="C3">
-        <f xml:space="preserve"> Pacientes!H3/38.67</f>
+        <f xml:space="preserve"> Pacientes!H5/38.67</f>
         <v>1.2412723041117144</v>
       </c>
-      <c r="D3" t="str">
-        <f>IF(Pacientes!B3&lt;70,"SCORE2","SCORE2-OP")</f>
+      <c r="D3">
+        <f>IF(Pacientes!B5&lt;45,40,
+ IF(Pacientes!B5&lt;50,45,
+ IF(Pacientes!B5&lt;55,50,
+ IF(Pacientes!B5&lt;60,55,
+ IF(Pacientes!B5&lt;65,60,
+ IF(Pacientes!B5&lt;70,65,
+ IF(Pacientes!B5&lt;75,70,
+ IF(Pacientes!B5&lt;80,75,80))))))))</f>
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <f>IF(Pacientes!F5&lt;130,120,
+ IF(Pacientes!F5&lt;150,140,
+ IF(Pacientes!F5&lt;170,160,180)))</f>
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <f>IF(Pacientes!G5&lt;145,130,
+ IF(Pacientes!G5&lt;175,160,
+ IF(Pacientes!G5&lt;205,190,220)))</f>
+        <v>220</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Pacientes!B5&gt;=70,"SCORE2-OP","SCORE2")</f>
         <v>SCORE2</v>
       </c>
-      <c r="E3">
-        <f>ROUND((Pacientes!B3*0.04)+(Pacientes!F3*0.02),1)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> IF(E3&lt;5,"Riesgo BAJO",IF(E3&lt;10,"Riesgo MODERADO","Riesgo ALTO"))</f>
+      <c r="H3">
+        <f>IF(Pacientes!C5="Hombre",
+    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.14*Pacientes!B5 + 0.08*Pacientes!F5 + 0.04*(Pacientes!G5-Pacientes!H5)-16), (0.11*Pacientes!B5 + 0.06*Pacientes!F5 + 0.03*(Pacientes!G5-Pacientes!H5)-12)),
+    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.1*Pacientes!B5 + 0.06*Pacientes!F5 + 0.03*(Pacientes!G5-Pacientes!H5)-11), (0.08*Pacientes!B5 + 0.05*Pacientes!F5 + 0.02*(Pacientes!G5-Pacientes!H5)-9))
+)</f>
+        <v>8.36</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(Pacientes!B5&lt;50, IF(H3&lt;2.5, "Riesgo BAJO", IF(H3&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B5&lt;70, IF(H3&lt;5, "Riesgo BAJO", IF(H3&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H3&lt;7.5, "Riesgo BAJO", IF(H3&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
         <v>Riesgo MODERADO</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>Pacientes!A4</f>
+        <f>Pacientes!A6</f>
         <v>P003</v>
       </c>
       <c r="B4">
-        <f>Pacientes!G4/38.67</f>
+        <f>Pacientes!G6/38.67</f>
         <v>6.7235583139384536</v>
       </c>
       <c r="C4">
-        <f xml:space="preserve"> Pacientes!H4/38.67</f>
+        <f xml:space="preserve"> Pacientes!H6/38.67</f>
         <v>1.034393586759762</v>
       </c>
-      <c r="D4" t="str">
-        <f>IF(Pacientes!B4&lt;70,"SCORE2","SCORE2-OP")</f>
+      <c r="D4">
+        <f>IF(Pacientes!B6&lt;45,40,
+ IF(Pacientes!B6&lt;50,45,
+ IF(Pacientes!B6&lt;55,50,
+ IF(Pacientes!B6&lt;60,55,
+ IF(Pacientes!B6&lt;65,60,
+ IF(Pacientes!B6&lt;70,65,
+ IF(Pacientes!B6&lt;75,70,
+ IF(Pacientes!B6&lt;80,75,80))))))))</f>
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <f>IF(Pacientes!F6&lt;130,120,
+ IF(Pacientes!F6&lt;150,140,
+ IF(Pacientes!F6&lt;170,160,180)))</f>
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <f>IF(Pacientes!G6&lt;145,130,
+ IF(Pacientes!G6&lt;175,160,
+ IF(Pacientes!G6&lt;205,190,220)))</f>
+        <v>220</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Pacientes!B6&gt;=70,"SCORE2-OP","SCORE2")</f>
         <v>SCORE2</v>
       </c>
-      <c r="E4">
-        <f>ROUND((Pacientes!B4*0.04)+(Pacientes!F4*0.02),1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4">
+        <f>IF(Pacientes!C6="Hombre",
+    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.14*Pacientes!B6 + 0.08*Pacientes!F6 + 0.04*(Pacientes!G6-Pacientes!H6)-16), (0.11*Pacientes!B6 + 0.06*Pacientes!F6 + 0.03*(Pacientes!G6-Pacientes!H6)-12)),
+    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.1*Pacientes!B6 + 0.06*Pacientes!F6 + 0.03*(Pacientes!G6-Pacientes!H6)-11), (0.08*Pacientes!B6 + 0.05*Pacientes!F6 + 0.02*(Pacientes!G6-Pacientes!H6)-9))
+)</f>
+        <v>14.580000000000002</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(Pacientes!B6&lt;50, IF(H4&lt;2.5, "Riesgo BAJO", IF(H4&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B6&lt;70, IF(H4&lt;5, "Riesgo BAJO", IF(H4&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H4&lt;7.5, "Riesgo BAJO", IF(H4&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
+        <v>Riesgo ALTO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Pacientes!A7</f>
+        <v>P004</v>
+      </c>
+      <c r="B5">
+        <f>Pacientes!G7/38.67</f>
+        <v>4.5254719420739589</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> Pacientes!H7/38.67</f>
+        <v>1.5515903801396431</v>
+      </c>
+      <c r="D5">
+        <f>IF(Pacientes!B7&lt;45,40,
+ IF(Pacientes!B7&lt;50,45,
+ IF(Pacientes!B7&lt;55,50,
+ IF(Pacientes!B7&lt;60,55,
+ IF(Pacientes!B7&lt;65,60,
+ IF(Pacientes!B7&lt;70,65,
+ IF(Pacientes!B7&lt;75,70,
+ IF(Pacientes!B7&lt;80,75,80))))))))</f>
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <f>IF(Pacientes!F7&lt;130,120,
+ IF(Pacientes!F7&lt;150,140,
+ IF(Pacientes!F7&lt;170,160,180)))</f>
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <f>IF(Pacientes!G7&lt;145,130,
+ IF(Pacientes!G7&lt;175,160,
+ IF(Pacientes!G7&lt;205,190,220)))</f>
+        <v>190</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(Pacientes!B7&gt;=70,"SCORE2-OP","SCORE2")</f>
+        <v>SCORE2</v>
+      </c>
+      <c r="H5">
+        <f>IF(Pacientes!C7="Hombre",
+    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.14*Pacientes!B7 + 0.08*Pacientes!F7 + 0.04*(Pacientes!G7-Pacientes!H7)-16), (0.11*Pacientes!B7 + 0.06*Pacientes!F7 + 0.03*(Pacientes!G7-Pacientes!H7)-12)),
+    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.1*Pacientes!B7 + 0.06*Pacientes!F7 + 0.03*(Pacientes!G7-Pacientes!H7)-11), (0.08*Pacientes!B7 + 0.05*Pacientes!F7 + 0.02*(Pacientes!G7-Pacientes!H7)-9))
+)</f>
+        <v>3.1499999999999986</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(Pacientes!B7&lt;50, IF(H5&lt;2.5, "Riesgo BAJO", IF(H5&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B7&lt;70, IF(H5&lt;5, "Riesgo BAJO", IF(H5&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H5&lt;7.5, "Riesgo BAJO", IF(H5&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
         <v>Riesgo MODERADO</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Pacientes!A5</f>
-        <v>P004</v>
-      </c>
-      <c r="B5">
-        <f>Pacientes!G5/38.67</f>
-        <v>4.5254719420739589</v>
-      </c>
-      <c r="C5">
-        <f xml:space="preserve"> Pacientes!H5/38.67</f>
-        <v>1.5515903801396431</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(Pacientes!B5&lt;70,"SCORE2","SCORE2-OP")</f>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Pacientes!A8</f>
+        <v>P005</v>
+      </c>
+      <c r="B6">
+        <f>Pacientes!G8/38.67</f>
+        <v>6.464959917248513</v>
+      </c>
+      <c r="C6">
+        <f xml:space="preserve"> Pacientes!H8/38.67</f>
+        <v>5.4822860098267387</v>
+      </c>
+      <c r="D6">
+        <f>IF(Pacientes!B8&lt;45,40,
+ IF(Pacientes!B8&lt;50,45,
+ IF(Pacientes!B8&lt;55,50,
+ IF(Pacientes!B8&lt;60,55,
+ IF(Pacientes!B8&lt;65,60,
+ IF(Pacientes!B8&lt;70,65,
+ IF(Pacientes!B8&lt;75,70,
+ IF(Pacientes!B8&lt;80,75,80))))))))</f>
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f>IF(Pacientes!F8&lt;130,120,
+ IF(Pacientes!F8&lt;150,140,
+ IF(Pacientes!F8&lt;170,160,180)))</f>
+        <v>160</v>
+      </c>
+      <c r="F6">
+        <f>IF(Pacientes!G8&lt;145,130,
+ IF(Pacientes!G8&lt;175,160,
+ IF(Pacientes!G8&lt;205,190,220)))</f>
+        <v>220</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f>IF(Pacientes!B8&gt;=70,"SCORE2-OP","SCORE2")</f>
         <v>SCORE2</v>
       </c>
-      <c r="E5">
-        <f>ROUND((Pacientes!B5*0.04)+(Pacientes!F5*0.02),1)</f>
-        <v>4</v>
-      </c>
-      <c r="F5" t="str">
-        <f xml:space="preserve"> IF(E5&lt;5,"Riesgo BAJO",IF(E5&lt;10,"Riesgo MODERADO","Riesgo ALTO"))</f>
-        <v>Riesgo BAJO</v>
+      <c r="H6">
+        <f>IF(Pacientes!C8="Hombre",
+    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.14*Pacientes!B8 + 0.08*Pacientes!F8 + 0.04*(Pacientes!G8-Pacientes!H8)-16), (0.11*Pacientes!B8 + 0.06*Pacientes!F8 + 0.03*(Pacientes!G8-Pacientes!H8)-12)),
+    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.1*Pacientes!B8 + 0.06*Pacientes!F8 + 0.03*(Pacientes!G8-Pacientes!H8)-11), (0.08*Pacientes!B8 + 0.05*Pacientes!F8 + 0.02*(Pacientes!G8-Pacientes!H8)-9))
+)</f>
+        <v>7.4000000000000021</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(Pacientes!B8&lt;50, IF(H6&lt;2.5, "Riesgo BAJO", IF(H6&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B8&lt;70, IF(H6&lt;5, "Riesgo BAJO", IF(H6&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H6&lt;7.5, "Riesgo BAJO", IF(H6&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
+        <v>Riesgo MODERADO</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Riesgo ALTO">
-      <formula>NOT(ISERROR(SEARCH("Riesgo ALTO",F1)))</formula>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Riesgo ALTO">
+      <formula>NOT(ISERROR(SEARCH("Riesgo ALTO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Riesgo MODERADO">
-      <formula>NOT(ISERROR(SEARCH("Riesgo MODERADO",F1)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Riesgo MODERADO">
+      <formula>NOT(ISERROR(SEARCH("Riesgo MODERADO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Riesgo BAJO">
-      <formula>NOT(ISERROR(SEARCH("Riesgo BAJO",F1)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Riesgo BAJO">
+      <formula>NOT(ISERROR(SEARCH("Riesgo BAJO",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -934,11 +4319,265 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3D449A-DFA6-497B-B4EE-79930BC9215B}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14">
+        <v>55</v>
+      </c>
+      <c r="D2" s="14">
+        <v>140</v>
+      </c>
+      <c r="E2" s="14">
+        <v>160</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="14">
+        <v>55</v>
+      </c>
+      <c r="D3" s="14">
+        <v>140</v>
+      </c>
+      <c r="E3" s="14">
+        <v>160</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="14">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14">
+        <v>140</v>
+      </c>
+      <c r="E4" s="14">
+        <v>160</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5B978-4E49-4A1C-B860-2F48D05AFACD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Calc!I:I,"Riesgo BAJO")</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>Pacientes!B4</f>
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <f>Calc!H2</f>
+        <v>7.75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGEIF(Pacientes!C:C,"Hombre",Calc!H:H)</f>
+        <v>10.990000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Calc!I:I,"Riesgo MODERADO")</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>Pacientes!B5</f>
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <f>Calc!H3</f>
+        <v>8.36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGEIF(Pacientes!C:C,"Mujer",Calc!H:H)</f>
+        <v>3.1499999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Calc!I:I,"Riesgo ALTO")</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>Pacientes!B6</f>
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <f>Calc!H4</f>
+        <v>14.580000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Pacientes!B7</f>
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <f>Calc!H5</f>
+        <v>3.1499999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>Pacientes!B8</f>
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <f>Calc!H6</f>
+        <v>7.4000000000000021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,92 +4585,111 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <f>Calc!A2</f>
         <v>P001</v>
       </c>
-      <c r="B2">
-        <f>Calc!E2</f>
-        <v>5.6</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Calc!F2</f>
+      <c r="B4">
+        <f>Calc!H2</f>
+        <v>7.75</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Calc!I2</f>
         <v>Riesgo MODERADO</v>
       </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(C2,Lookups!$A$2:$B$10,2,FALSE),"")</f>
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$4,2,FALSE),"")</f>
         <v>Intervención intensiva en estilo de vida; considerar estatina</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f>Calc!A3</f>
         <v>P002</v>
       </c>
-      <c r="B3">
-        <f>Calc!E3</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Calc!F3</f>
+      <c r="B5">
+        <f>Calc!H3</f>
+        <v>8.36</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Calc!I3</f>
         <v>Riesgo MODERADO</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(C3,Lookups!$A$2:$B$10,2,FALSE),"")</f>
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(C5,Lookups!$A$2:$B$4,2,FALSE),"")</f>
         <v>Intervención intensiva en estilo de vida; considerar estatina</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f>Calc!A4</f>
         <v>P003</v>
       </c>
-      <c r="B4">
-        <f>Calc!E4</f>
-        <v>5.8</v>
-      </c>
-      <c r="C4" t="str">
-        <f>Calc!F4</f>
-        <v>Riesgo MODERADO</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$10,2,FALSE),"")</f>
-        <v>Intervención intensiva en estilo de vida; considerar estatina</v>
+      <c r="B6">
+        <f>Calc!H4</f>
+        <v>14.580000000000002</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Calc!I4</f>
+        <v>Riesgo ALTO</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(C6,Lookups!$A$2:$B$4,2,FALSE),"")</f>
+        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <f>Calc!A5</f>
         <v>P004</v>
       </c>
-      <c r="B5">
-        <f>Calc!E5</f>
-        <v>4</v>
-      </c>
-      <c r="C5" t="str">
-        <f>Calc!F5</f>
-        <v>Riesgo BAJO</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(C5,Lookups!$A$2:$B$10,2,FALSE),"")</f>
-        <v>Estilo de vida saludable y control periódico</v>
+      <c r="B7">
+        <f>Calc!H5</f>
+        <v>3.1499999999999986</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Calc!I5</f>
+        <v>Riesgo MODERADO</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(C7,Lookups!$A$2:$B$4,2,FALSE),"")</f>
+        <v>Intervención intensiva en estilo de vida; considerar estatina</v>
       </c>
     </row>
   </sheetData>
@@ -1042,18 +4700,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +4725,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1074,7 +4733,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1082,7 +4741,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1096,30 +4755,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B361C9B-2875-4A4A-95EB-6631F984F71C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
+++ b/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Archivos varios\Excel para SCORE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C812BD5-337B-4D17-9588-D9A9A7E0F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865F58A-2DA4-4E7D-9FB7-6A42FE519EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pacientes" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$D$2:$D$6</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Gráficos!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Gráficos!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Gráficos!$E$2:$E$6</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$E$2:$E$6</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$2:$D$6</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$E$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Gráficos!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Gráficos!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Gráficos!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Gráficos!$D$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +58,6 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>PAS</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Region2</t>
-  </si>
-  <si>
     <t>Riesgo 10 años(%)</t>
   </si>
   <si>
@@ -239,6 +224,21 @@
   </si>
   <si>
     <t>SCORE2</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>SCORE2-OP</t>
+  </si>
+  <si>
+    <t>LDL_mg</t>
+  </si>
+  <si>
+    <t>P008</t>
   </si>
 </sst>
 </file>
@@ -374,8 +374,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -391,23 +404,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -432,36 +463,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -703,10 +704,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,7 +1030,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1054,7 @@
                   <c:v>3.1499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4000000000000021</c:v>
+                  <c:v>6.9499999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,6 +1353,50 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-02BC-43C1-8798-A1A5621776E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-02BC-43C1-8798-A1A5621776E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Gráficos!$G$2:$G$3</c:f>
@@ -1373,10 +1418,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.990000000000002</c:v>
+                  <c:v>8.5949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1499999999999986</c:v>
+                  <c:v>2.9499999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,38 +3364,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}" name="Tabla1" displayName="Tabla1" ref="A3:J9" totalsRowShown="0">
-  <autoFilter ref="A3:J9" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}" name="Tabla1" displayName="Tabla1" ref="A3:I12" totalsRowShown="0">
+  <autoFilter ref="A3:I12" xr:uid="{256994F7-81E0-4295-9BEA-C035B2F33A5F}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D442F064-4C6D-4633-94CF-B87FFCE576C9}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0848D654-FB79-44AB-ABB4-25075F42B96F}" name="Edad"/>
     <tableColumn id="3" xr3:uid="{7CE8B014-2703-4451-AD94-B03FB2634FED}" name="Sexo"/>
     <tableColumn id="4" xr3:uid="{9B1E5C2A-8776-4EC2-A359-BDFD994F9B85}" name="Tabaquismo"/>
-    <tableColumn id="5" xr3:uid="{12264DFE-28CA-44E6-A46D-056E923A5FD7}" name="Diabetes"/>
     <tableColumn id="6" xr3:uid="{FB089BC2-6E82-4A7E-9C90-A7AE12A77451}" name="PAS"/>
     <tableColumn id="7" xr3:uid="{03F0D803-3115-4ABD-AC45-773C964D0836}" name="Col_Total_mg"/>
     <tableColumn id="8" xr3:uid="{7D788E62-63A9-4428-9842-F02A3D9FAB49}" name="HDL_mg"/>
-    <tableColumn id="9" xr3:uid="{60202A95-9C1B-407A-8D42-EAE84A61E171}" name="Region"/>
-    <tableColumn id="10" xr3:uid="{A29A4DDF-5299-4658-BBB8-002072B48D41}" name="Region2"/>
+    <tableColumn id="9" xr3:uid="{60202A95-9C1B-407A-8D42-EAE84A61E171}" name="LDL_mg"/>
+    <tableColumn id="11" xr3:uid="{4BA2F3BE-9D7D-4004-B746-B11D80D5897E}" name="Region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}" name="Tabla2" displayName="Tabla2" ref="A1:I6" totalsRowShown="0">
-  <autoFilter ref="A1:I6" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}" name="Tabla2" displayName="Tabla2" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{6247021D-F742-4F76-95F9-1782BABD2B23}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E15068A-23A1-4A5F-B60A-6C53860B858B}" name="ID">
       <calculatedColumnFormula>Pacientes!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F93C5A4E-7FE5-438C-9352-BC29985C9DEF}" name="TC_mmol">
-      <calculatedColumnFormula>Pacientes!G4/38.67</calculatedColumnFormula>
+      <calculatedColumnFormula>Pacientes!F4/38.67</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AF215800-7DC7-47CA-93FE-87ACD0EE8FEB}" name="HDL_mmol">
-      <calculatedColumnFormula xml:space="preserve"> Pacientes!H4/38.67</calculatedColumnFormula>
+      <calculatedColumnFormula xml:space="preserve"> Pacientes!G4/38.67</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D17D713E-5301-4561-B34A-81916582708D}" name="Edad_SCORE" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{D17D713E-5301-4561-B34A-81916582708D}" name="Edad_SCORE" dataDxfId="10">
       <calculatedColumnFormula>IF(Pacientes!B4&lt;45,40,
  IF(Pacientes!B4&lt;50,45,
  IF(Pacientes!B4&lt;55,50,
@@ -3360,27 +3404,36 @@
  IF(Pacientes!B4&lt;75,70,
  IF(Pacientes!B4&lt;80,75,80))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A376A199-971B-42BD-A253-CB9B387D96CE}" name="PAS_SCORE" dataDxfId="4">
-      <calculatedColumnFormula>IF(Pacientes!F4&lt;130,120,
- IF(Pacientes!F4&lt;150,140,
- IF(Pacientes!F4&lt;170,160,180)))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A376A199-971B-42BD-A253-CB9B387D96CE}" name="PAS_SCORE" dataDxfId="9">
+      <calculatedColumnFormula>IF(Pacientes!E4&lt;130,120,
+ IF(Pacientes!E4&lt;150,140,
+ IF(Pacientes!E4&lt;170,160,180)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AAAD112D-EED9-49F8-88B7-84CF571FB8DB}" name="noHDL_SCORE" dataDxfId="3">
-      <calculatedColumnFormula>IF(Pacientes!G4&lt;145,130,
- IF(Pacientes!G4&lt;175,160,
- IF(Pacientes!G4&lt;205,190,220)))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{AAAD112D-EED9-49F8-88B7-84CF571FB8DB}" name="noHDL_SCORE" dataDxfId="8">
+      <calculatedColumnFormula>IF(Pacientes!F4&lt;145,130,
+ IF(Pacientes!F4&lt;175,160,
+ IF(Pacientes!F4&lt;205,190,220)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="7">
       <calculatedColumnFormula>IF(Pacientes!B4&gt;=70,"SCORE2-OP","SCORE2")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%" dataDxfId="4">
       <calculatedColumnFormula>IF(Pacientes!C4="Hombre",
-    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!F4 + 0.04*(Pacientes!G4-Pacientes!H4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-12)),
-    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!F4 + 0.02*(Pacientes!G4-Pacientes!H4)-9))
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!E4 + 0.04*(Pacientes!F4-Pacientes!G4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-12)),
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!E4 + 0.02*(Pacientes!F4-Pacientes!G4)-9))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria" dataDxfId="9">
-      <calculatedColumnFormula>IF(Pacientes!B4&lt;50, IF(H2&lt;2.5, "Riesgo BAJO", IF(H2&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B4&lt;70, IF(H2&lt;5, "Riesgo BAJO", IF(H2&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H2&lt;7.5, "Riesgo BAJO", IF(H2&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria" dataDxfId="3">
+      <calculatedColumnFormula>IF(G2="SCORE2",
+    IF(H2&lt;5,"Riesgo Bajo-Moderado",
+       IF(H2&lt;10,"Riesgo Alto",
+          "Riesgo Muy Alto")),
+    IF(G2="SCORE2-OP",
+       IF(H2&lt;7.5,"Riesgo Bajo-Moderado",
+          IF(H2&lt;15,"Riesgo Alto",
+             "Riesgo Muy Alto")),
+       "")
+)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3388,8 +3441,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}" name="Tabla8" displayName="Tabla8" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G4" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}" name="Tabla8" displayName="Tabla8" ref="A1:G5" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G5" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B79147FB-457D-4FE7-B9A3-D5857644AD36}" name="Modelo"/>
     <tableColumn id="2" xr3:uid="{8C1146AB-2396-40FA-B936-240176766887}" name="Sexo"/>
@@ -3443,8 +3496,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}" name="Tabla3" displayName="Tabla3" ref="A3:D7" totalsRowShown="0">
-  <autoFilter ref="A3:D7" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}" name="Tabla3" displayName="Tabla3" ref="A3:D10" totalsRowShown="0">
+  <autoFilter ref="A3:D10" xr:uid="{AF6AD8C3-F407-43AA-BE78-F4B5B66795E0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60BB0A7A-5763-4611-BE33-38574DA046C9}" name="ID">
       <calculatedColumnFormula>Calc!A2</calculatedColumnFormula>
@@ -3455,7 +3508,7 @@
     <tableColumn id="3" xr3:uid="{5DBE0A4C-2E5F-47BC-9E11-8AE748456E46}" name="Categoria">
       <calculatedColumnFormula>Calc!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$4,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3759,41 +3812,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -3816,173 +3867,247 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4">
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G4">
-        <v>180</v>
-      </c>
-      <c r="H4">
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>58</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="E5">
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="G5">
-        <v>220</v>
-      </c>
-      <c r="H5">
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>155</v>
       </c>
       <c r="F6">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="G6">
-        <v>260</v>
-      </c>
-      <c r="H6">
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>175</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>180</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>145</v>
+      </c>
+      <c r="F10" s="1">
+        <v>240</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>118</v>
-      </c>
-      <c r="G7">
-        <v>175</v>
-      </c>
-      <c r="H7">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1">
+        <v>180</v>
+      </c>
+      <c r="G11" s="1">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>165</v>
-      </c>
-      <c r="G8">
-        <v>250</v>
-      </c>
-      <c r="H8">
-        <v>212</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -3993,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,7 +4131,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,28 +4139,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4044,11 +4169,11 @@
         <v>P001</v>
       </c>
       <c r="B2">
-        <f>Pacientes!G4/38.67</f>
+        <f>Pacientes!F4/38.67</f>
         <v>4.6547711404189291</v>
       </c>
       <c r="C2">
-        <f xml:space="preserve"> Pacientes!H4/38.67</f>
+        <f xml:space="preserve"> Pacientes!G4/38.67</f>
         <v>1.4222911817946728</v>
       </c>
       <c r="D2">
@@ -4063,15 +4188,15 @@
         <v>80</v>
       </c>
       <c r="E2">
-        <f>IF(Pacientes!F4&lt;130,120,
- IF(Pacientes!F4&lt;150,140,
- IF(Pacientes!F4&lt;170,160,180)))</f>
+        <f>IF(Pacientes!E4&lt;130,120,
+ IF(Pacientes!E4&lt;150,140,
+ IF(Pacientes!E4&lt;170,160,180)))</f>
         <v>120</v>
       </c>
       <c r="F2">
-        <f>IF(Pacientes!G4&lt;145,130,
- IF(Pacientes!G4&lt;175,160,
- IF(Pacientes!G4&lt;205,190,220)))</f>
+        <f>IF(Pacientes!F4&lt;145,130,
+ IF(Pacientes!F4&lt;175,160,
+ IF(Pacientes!F4&lt;205,190,220)))</f>
         <v>190</v>
       </c>
       <c r="G2" t="str">
@@ -4080,27 +4205,36 @@
       </c>
       <c r="H2">
         <f>IF(Pacientes!C4="Hombre",
-    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!F4 + 0.04*(Pacientes!G4-Pacientes!H4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-12)),
-    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!F4 + 0.03*(Pacientes!G4-Pacientes!H4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!F4 + 0.02*(Pacientes!G4-Pacientes!H4)-9))
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!E4 + 0.04*(Pacientes!F4-Pacientes!G4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-12)),
+    IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!E4 + 0.02*(Pacientes!F4-Pacientes!G4)-9))
 )</f>
         <v>7.75</v>
       </c>
-      <c r="I2" t="str">
-        <f>IF(Pacientes!B4&lt;50, IF(H2&lt;2.5, "Riesgo BAJO", IF(H2&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B4&lt;70, IF(H2&lt;5, "Riesgo BAJO", IF(H2&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H2&lt;7.5, "Riesgo BAJO", IF(H2&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
-        <v>Riesgo MODERADO</v>
+      <c r="I2" s="6" t="str">
+        <f t="shared" ref="I2:I8" si="0">IF(G2="SCORE2",
+    IF(H2&lt;5,"Riesgo Bajo-Moderado",
+       IF(H2&lt;10,"Riesgo Alto",
+          "Riesgo Muy Alto")),
+    IF(G2="SCORE2-OP",
+       IF(H2&lt;7.5,"Riesgo Bajo-Moderado",
+          IF(H2&lt;15,"Riesgo Alto",
+             "Riesgo Muy Alto")),
+       "")
+)</f>
+        <v>Riesgo Alto</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <f>Pacientes!A5</f>
         <v>P002</v>
       </c>
       <c r="B3">
-        <f>Pacientes!G5/38.67</f>
+        <f>Pacientes!F5/38.67</f>
         <v>5.6891647271786914</v>
       </c>
       <c r="C3">
-        <f xml:space="preserve"> Pacientes!H5/38.67</f>
+        <f xml:space="preserve"> Pacientes!G5/38.67</f>
         <v>1.2412723041117144</v>
       </c>
       <c r="D3">
@@ -4115,15 +4249,15 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <f>IF(Pacientes!F5&lt;130,120,
- IF(Pacientes!F5&lt;150,140,
- IF(Pacientes!F5&lt;170,160,180)))</f>
+        <f>IF(Pacientes!E5&lt;130,120,
+ IF(Pacientes!E5&lt;150,140,
+ IF(Pacientes!E5&lt;170,160,180)))</f>
         <v>140</v>
       </c>
       <c r="F3">
-        <f>IF(Pacientes!G5&lt;145,130,
- IF(Pacientes!G5&lt;175,160,
- IF(Pacientes!G5&lt;205,190,220)))</f>
+        <f>IF(Pacientes!F5&lt;145,130,
+ IF(Pacientes!F5&lt;175,160,
+ IF(Pacientes!F5&lt;205,190,220)))</f>
         <v>220</v>
       </c>
       <c r="G3" t="str">
@@ -4132,27 +4266,27 @@
       </c>
       <c r="H3">
         <f>IF(Pacientes!C5="Hombre",
-    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.14*Pacientes!B5 + 0.08*Pacientes!F5 + 0.04*(Pacientes!G5-Pacientes!H5)-16), (0.11*Pacientes!B5 + 0.06*Pacientes!F5 + 0.03*(Pacientes!G5-Pacientes!H5)-12)),
-    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.1*Pacientes!B5 + 0.06*Pacientes!F5 + 0.03*(Pacientes!G5-Pacientes!H5)-11), (0.08*Pacientes!B5 + 0.05*Pacientes!F5 + 0.02*(Pacientes!G5-Pacientes!H5)-9))
+    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.14*Pacientes!B5 + 0.08*Pacientes!E5 + 0.04*(Pacientes!F5-Pacientes!G5)-16), (0.11*Pacientes!B5 + 0.06*Pacientes!E5 + 0.03*(Pacientes!F5-Pacientes!G5)-12)),
+    IF(OR(Pacientes!D5="Si", Pacientes!D5="Sí"), (0.1*Pacientes!B5 + 0.06*Pacientes!E5 + 0.03*(Pacientes!F5-Pacientes!G5)-11), (0.08*Pacientes!B5 + 0.05*Pacientes!E5 + 0.02*(Pacientes!F5-Pacientes!G5)-9))
 )</f>
         <v>8.36</v>
       </c>
-      <c r="I3" t="str">
-        <f>IF(Pacientes!B5&lt;50, IF(H3&lt;2.5, "Riesgo BAJO", IF(H3&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B5&lt;70, IF(H3&lt;5, "Riesgo BAJO", IF(H3&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H3&lt;7.5, "Riesgo BAJO", IF(H3&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
-        <v>Riesgo MODERADO</v>
+      <c r="I3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Alto</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <f>Pacientes!A6</f>
         <v>P003</v>
       </c>
       <c r="B4">
-        <f>Pacientes!G6/38.67</f>
+        <f>Pacientes!F6/38.67</f>
         <v>6.7235583139384536</v>
       </c>
       <c r="C4">
-        <f xml:space="preserve"> Pacientes!H6/38.67</f>
+        <f xml:space="preserve"> Pacientes!G6/38.67</f>
         <v>1.034393586759762</v>
       </c>
       <c r="D4">
@@ -4167,15 +4301,15 @@
         <v>65</v>
       </c>
       <c r="E4">
-        <f>IF(Pacientes!F6&lt;130,120,
- IF(Pacientes!F6&lt;150,140,
- IF(Pacientes!F6&lt;170,160,180)))</f>
+        <f>IF(Pacientes!E6&lt;130,120,
+ IF(Pacientes!E6&lt;150,140,
+ IF(Pacientes!E6&lt;170,160,180)))</f>
         <v>160</v>
       </c>
       <c r="F4">
-        <f>IF(Pacientes!G6&lt;145,130,
- IF(Pacientes!G6&lt;175,160,
- IF(Pacientes!G6&lt;205,190,220)))</f>
+        <f>IF(Pacientes!F6&lt;145,130,
+ IF(Pacientes!F6&lt;175,160,
+ IF(Pacientes!F6&lt;205,190,220)))</f>
         <v>220</v>
       </c>
       <c r="G4" t="str">
@@ -4184,27 +4318,27 @@
       </c>
       <c r="H4">
         <f>IF(Pacientes!C6="Hombre",
-    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.14*Pacientes!B6 + 0.08*Pacientes!F6 + 0.04*(Pacientes!G6-Pacientes!H6)-16), (0.11*Pacientes!B6 + 0.06*Pacientes!F6 + 0.03*(Pacientes!G6-Pacientes!H6)-12)),
-    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.1*Pacientes!B6 + 0.06*Pacientes!F6 + 0.03*(Pacientes!G6-Pacientes!H6)-11), (0.08*Pacientes!B6 + 0.05*Pacientes!F6 + 0.02*(Pacientes!G6-Pacientes!H6)-9))
+    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.14*Pacientes!B6 + 0.08*Pacientes!E6 + 0.04*(Pacientes!F6-Pacientes!G6)-16), (0.11*Pacientes!B6 + 0.06*Pacientes!E6 + 0.03*(Pacientes!F6-Pacientes!G6)-12)),
+    IF(OR(Pacientes!D6="Si", Pacientes!D6="Sí"), (0.1*Pacientes!B6 + 0.06*Pacientes!E6 + 0.03*(Pacientes!F6-Pacientes!G6)-11), (0.08*Pacientes!B6 + 0.05*Pacientes!E6 + 0.02*(Pacientes!F6-Pacientes!G6)-9))
 )</f>
         <v>14.580000000000002</v>
       </c>
-      <c r="I4" t="str">
-        <f>IF(Pacientes!B6&lt;50, IF(H4&lt;2.5, "Riesgo BAJO", IF(H4&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B6&lt;70, IF(H4&lt;5, "Riesgo BAJO", IF(H4&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H4&lt;7.5, "Riesgo BAJO", IF(H4&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
-        <v>Riesgo ALTO</v>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Muy Alto</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <f>Pacientes!A7</f>
         <v>P004</v>
       </c>
       <c r="B5">
-        <f>Pacientes!G7/38.67</f>
+        <f>Pacientes!F7/38.67</f>
         <v>4.5254719420739589</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> Pacientes!H7/38.67</f>
+        <f xml:space="preserve"> Pacientes!G7/38.67</f>
         <v>1.5515903801396431</v>
       </c>
       <c r="D5">
@@ -4219,15 +4353,15 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <f>IF(Pacientes!F7&lt;130,120,
- IF(Pacientes!F7&lt;150,140,
- IF(Pacientes!F7&lt;170,160,180)))</f>
+        <f>IF(Pacientes!E7&lt;130,120,
+ IF(Pacientes!E7&lt;150,140,
+ IF(Pacientes!E7&lt;170,160,180)))</f>
         <v>120</v>
       </c>
       <c r="F5">
-        <f>IF(Pacientes!G7&lt;145,130,
- IF(Pacientes!G7&lt;175,160,
- IF(Pacientes!G7&lt;205,190,220)))</f>
+        <f>IF(Pacientes!F7&lt;145,130,
+ IF(Pacientes!F7&lt;175,160,
+ IF(Pacientes!F7&lt;205,190,220)))</f>
         <v>190</v>
       </c>
       <c r="G5" t="str">
@@ -4236,28 +4370,28 @@
       </c>
       <c r="H5">
         <f>IF(Pacientes!C7="Hombre",
-    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.14*Pacientes!B7 + 0.08*Pacientes!F7 + 0.04*(Pacientes!G7-Pacientes!H7)-16), (0.11*Pacientes!B7 + 0.06*Pacientes!F7 + 0.03*(Pacientes!G7-Pacientes!H7)-12)),
-    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.1*Pacientes!B7 + 0.06*Pacientes!F7 + 0.03*(Pacientes!G7-Pacientes!H7)-11), (0.08*Pacientes!B7 + 0.05*Pacientes!F7 + 0.02*(Pacientes!G7-Pacientes!H7)-9))
+    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.14*Pacientes!B7 + 0.08*Pacientes!E7 + 0.04*(Pacientes!F7-Pacientes!G7)-16), (0.11*Pacientes!B7 + 0.06*Pacientes!E7 + 0.03*(Pacientes!F7-Pacientes!G7)-12)),
+    IF(OR(Pacientes!D7="Si", Pacientes!D7="Sí"), (0.1*Pacientes!B7 + 0.06*Pacientes!E7 + 0.03*(Pacientes!F7-Pacientes!G7)-11), (0.08*Pacientes!B7 + 0.05*Pacientes!E7 + 0.02*(Pacientes!F7-Pacientes!G7)-9))
 )</f>
         <v>3.1499999999999986</v>
       </c>
-      <c r="I5" t="str">
-        <f>IF(Pacientes!B7&lt;50, IF(H5&lt;2.5, "Riesgo BAJO", IF(H5&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B7&lt;70, IF(H5&lt;5, "Riesgo BAJO", IF(H5&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H5&lt;7.5, "Riesgo BAJO", IF(H5&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
-        <v>Riesgo MODERADO</v>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Bajo-Moderado</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <f>Pacientes!A8</f>
         <v>P005</v>
       </c>
       <c r="B6">
-        <f>Pacientes!G8/38.67</f>
-        <v>6.464959917248513</v>
+        <f>Pacientes!F8/38.67</f>
+        <v>5.1719679337988103</v>
       </c>
       <c r="C6">
-        <f xml:space="preserve"> Pacientes!H8/38.67</f>
-        <v>5.4822860098267387</v>
+        <f xml:space="preserve"> Pacientes!G8/38.67</f>
+        <v>1.034393586759762</v>
       </c>
       <c r="D6">
         <f>IF(Pacientes!B8&lt;45,40,
@@ -4268,46 +4402,211 @@
  IF(Pacientes!B8&lt;70,65,
  IF(Pacientes!B8&lt;75,70,
  IF(Pacientes!B8&lt;80,75,80))))))))</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <f>IF(Pacientes!F8&lt;130,120,
- IF(Pacientes!F8&lt;150,140,
- IF(Pacientes!F8&lt;170,160,180)))</f>
-        <v>160</v>
+        <f>IF(Pacientes!E8&lt;130,120,
+ IF(Pacientes!E8&lt;150,140,
+ IF(Pacientes!E8&lt;170,160,180)))</f>
+        <v>140</v>
       </c>
       <c r="F6">
-        <f>IF(Pacientes!G8&lt;145,130,
- IF(Pacientes!G8&lt;175,160,
- IF(Pacientes!G8&lt;205,190,220)))</f>
-        <v>220</v>
-      </c>
-      <c r="G6" s="12" t="str">
+        <f>IF(Pacientes!F8&lt;145,130,
+ IF(Pacientes!F8&lt;175,160,
+ IF(Pacientes!F8&lt;205,190,220)))</f>
+        <v>190</v>
+      </c>
+      <c r="G6" s="6" t="str">
         <f>IF(Pacientes!B8&gt;=70,"SCORE2-OP","SCORE2")</f>
         <v>SCORE2</v>
       </c>
       <c r="H6">
         <f>IF(Pacientes!C8="Hombre",
-    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.14*Pacientes!B8 + 0.08*Pacientes!F8 + 0.04*(Pacientes!G8-Pacientes!H8)-16), (0.11*Pacientes!B8 + 0.06*Pacientes!F8 + 0.03*(Pacientes!G8-Pacientes!H8)-12)),
-    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.1*Pacientes!B8 + 0.06*Pacientes!F8 + 0.03*(Pacientes!G8-Pacientes!H8)-11), (0.08*Pacientes!B8 + 0.05*Pacientes!F8 + 0.02*(Pacientes!G8-Pacientes!H8)-9))
+    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.14*Pacientes!B8 + 0.08*Pacientes!E8 + 0.04*(Pacientes!F8-Pacientes!G8)-16), (0.11*Pacientes!B8 + 0.06*Pacientes!E8 + 0.03*(Pacientes!F8-Pacientes!G8)-12)),
+    IF(OR(Pacientes!D8="Si", Pacientes!D8="Sí"), (0.1*Pacientes!B8 + 0.06*Pacientes!E8 + 0.03*(Pacientes!F8-Pacientes!G8)-11), (0.08*Pacientes!B8 + 0.05*Pacientes!E8 + 0.02*(Pacientes!F8-Pacientes!G8)-9))
 )</f>
-        <v>7.4000000000000021</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(Pacientes!B8&lt;50, IF(H6&lt;2.5, "Riesgo BAJO", IF(H6&lt;7.5, "Riesgo MODERADO", "Riesgo ALTO")), IF(Pacientes!B8&lt;70, IF(H6&lt;5, "Riesgo BAJO", IF(H6&lt;10, "Riesgo MODERADO", "Riesgo ALTO")), IF(H6&lt;7.5, "Riesgo BAJO", IF(H6&lt;15, "Riesgo MODERADO", "Riesgo ALTO"))))</f>
-        <v>Riesgo MODERADO</v>
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Alto</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>Pacientes!A9</f>
+        <v>P006</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Pacientes!F9/38.67</f>
+        <v>4.6547711404189291</v>
+      </c>
+      <c r="C7" s="1">
+        <f xml:space="preserve"> Pacientes!G9/38.67</f>
+        <v>1.5515903801396431</v>
+      </c>
+      <c r="D7" s="6">
+        <f>IF(Pacientes!B9&lt;45,40,
+ IF(Pacientes!B9&lt;50,45,
+ IF(Pacientes!B9&lt;55,50,
+ IF(Pacientes!B9&lt;60,55,
+ IF(Pacientes!B9&lt;65,60,
+ IF(Pacientes!B9&lt;70,65,
+ IF(Pacientes!B9&lt;75,70,
+ IF(Pacientes!B9&lt;80,75,80))))))))</f>
+        <v>55</v>
+      </c>
+      <c r="E7" s="6">
+        <f>IF(Pacientes!E9&lt;130,120,
+ IF(Pacientes!E9&lt;150,140,
+ IF(Pacientes!E9&lt;170,160,180)))</f>
+        <v>120</v>
+      </c>
+      <c r="F7" s="6">
+        <f>IF(Pacientes!F9&lt;145,130,
+ IF(Pacientes!F9&lt;175,160,
+ IF(Pacientes!F9&lt;205,190,220)))</f>
+        <v>190</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IF(Pacientes!B9&gt;=70,"SCORE2-OP","SCORE2")</f>
+        <v>SCORE2</v>
+      </c>
+      <c r="H7" s="6">
+        <f>IF(Pacientes!C9="Hombre",
+    IF(OR(Pacientes!D9="Si", Pacientes!D9="Sí"), (0.14*Pacientes!B9 + 0.08*Pacientes!E9 + 0.04*(Pacientes!F9-Pacientes!G9)-16), (0.11*Pacientes!B9 + 0.06*Pacientes!E9 + 0.03*(Pacientes!F9-Pacientes!G9)-12)),
+    IF(OR(Pacientes!D9="Si", Pacientes!D9="Sí"), (0.1*Pacientes!B9 + 0.06*Pacientes!E9 + 0.03*(Pacientes!F9-Pacientes!G9)-11), (0.08*Pacientes!B9 + 0.05*Pacientes!E9 + 0.02*(Pacientes!F9-Pacientes!G9)-9))
+)</f>
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Bajo-Moderado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>Pacientes!A10</f>
+        <v>P007</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Pacientes!F10/38.67</f>
+        <v>6.2063615205585725</v>
+      </c>
+      <c r="C8" s="1">
+        <f xml:space="preserve"> Pacientes!G10/38.67</f>
+        <v>1.034393586759762</v>
+      </c>
+      <c r="D8" s="6">
+        <f>IF(Pacientes!B10&lt;45,40,
+ IF(Pacientes!B10&lt;50,45,
+ IF(Pacientes!B10&lt;55,50,
+ IF(Pacientes!B10&lt;60,55,
+ IF(Pacientes!B10&lt;65,60,
+ IF(Pacientes!B10&lt;70,65,
+ IF(Pacientes!B10&lt;75,70,
+ IF(Pacientes!B10&lt;80,75,80))))))))</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="6">
+        <f>IF(Pacientes!E10&lt;130,120,
+ IF(Pacientes!E10&lt;150,140,
+ IF(Pacientes!E10&lt;170,160,180)))</f>
+        <v>140</v>
+      </c>
+      <c r="F8" s="6">
+        <f>IF(Pacientes!F10&lt;145,130,
+ IF(Pacientes!F10&lt;175,160,
+ IF(Pacientes!F10&lt;205,190,220)))</f>
+        <v>220</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>IF(Pacientes!B10&gt;=70,"SCORE2-OP","SCORE2")</f>
+        <v>SCORE2</v>
+      </c>
+      <c r="H8" s="6">
+        <f>IF(Pacientes!C10="Hombre",
+    IF(OR(Pacientes!D10="Si", Pacientes!D10="Sí"), (0.14*Pacientes!B10 + 0.08*Pacientes!E10 + 0.04*(Pacientes!F10-Pacientes!G10)-16), (0.11*Pacientes!B10 + 0.06*Pacientes!E10 + 0.03*(Pacientes!F10-Pacientes!G10)-12)),
+    IF(OR(Pacientes!D10="Si", Pacientes!D10="Sí"), (0.1*Pacientes!B10 + 0.06*Pacientes!E10 + 0.03*(Pacientes!F10-Pacientes!G10)-11), (0.08*Pacientes!B10 + 0.05*Pacientes!E10 + 0.02*(Pacientes!F10-Pacientes!G10)-9))
+)</f>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Riesgo Alto</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>Pacientes!A11</f>
+        <v>P008</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Pacientes!F11/38.67</f>
+        <v>4.6547711404189291</v>
+      </c>
+      <c r="C9" s="1">
+        <f xml:space="preserve"> Pacientes!G11/38.67</f>
+        <v>1.5515903801396431</v>
+      </c>
+      <c r="D9" s="6">
+        <f>IF(Pacientes!B11&lt;45,40,
+ IF(Pacientes!B11&lt;50,45,
+ IF(Pacientes!B11&lt;55,50,
+ IF(Pacientes!B11&lt;60,55,
+ IF(Pacientes!B11&lt;65,60,
+ IF(Pacientes!B11&lt;70,65,
+ IF(Pacientes!B11&lt;75,70,
+ IF(Pacientes!B11&lt;80,75,80))))))))</f>
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <f>IF(Pacientes!E11&lt;130,120,
+ IF(Pacientes!E11&lt;150,140,
+ IF(Pacientes!E11&lt;170,160,180)))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="6">
+        <f>IF(Pacientes!F11&lt;145,130,
+ IF(Pacientes!F11&lt;175,160,
+ IF(Pacientes!F11&lt;205,190,220)))</f>
+        <v>190</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IF(Pacientes!B11&gt;=70,"SCORE2-OP","SCORE2")</f>
+        <v>SCORE2</v>
+      </c>
+      <c r="H9" s="6">
+        <f>IF(Pacientes!C11="Hombre",
+    IF(OR(Pacientes!D11="Si", Pacientes!D11="Sí"), (0.14*Pacientes!B11 + 0.08*Pacientes!E11 + 0.04*(Pacientes!F11-Pacientes!G11)-16), (0.11*Pacientes!B11 + 0.06*Pacientes!E11 + 0.03*(Pacientes!F11-Pacientes!G11)-12)),
+    IF(OR(Pacientes!D11="Si", Pacientes!D11="Sí"), (0.1*Pacientes!B11 + 0.06*Pacientes!E11 + 0.03*(Pacientes!F11-Pacientes!G11)-11), (0.08*Pacientes!B11 + 0.05*Pacientes!E11 + 0.02*(Pacientes!F11-Pacientes!G11)-9))
+)</f>
+        <v>2.75</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>IF(G9="SCORE2",
+    IF(H9&lt;5,"Riesgo Bajo-Moderado",
+       IF(H9&lt;10,"Riesgo Alto",
+          "Riesgo Muy Alto")),
+    IF(G9="SCORE2-OP",
+       IF(H9&lt;7.5,"Riesgo Bajo-Moderado",
+          IF(H9&lt;15,"Riesgo Alto",
+             "Riesgo Muy Alto")),
+       "")
+)</f>
+        <v>Riesgo Bajo-Moderado</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Riesgo ALTO">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Riesgo ALTO">
       <formula>NOT(ISERROR(SEARCH("Riesgo ALTO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Riesgo MODERADO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Riesgo MODERADO">
       <formula>NOT(ISERROR(SEARCH("Riesgo MODERADO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Riesgo BAJO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Riesgo BAJO">
       <formula>NOT(ISERROR(SEARCH("Riesgo BAJO",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4322,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3D449A-DFA6-497B-B4EE-79930BC9215B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,103 +4630,127 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="C2" s="8">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8">
+        <v>140</v>
+      </c>
+      <c r="E2" s="8">
+        <v>160</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8">
+        <v>160</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C4" s="8">
         <v>55</v>
       </c>
-      <c r="C2" s="14">
-        <v>55</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="D4" s="8">
         <v>140</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E4" s="8">
         <v>160</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="14">
-        <v>55</v>
-      </c>
-      <c r="D3" s="14">
-        <v>140</v>
-      </c>
-      <c r="E3" s="14">
-        <v>160</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="14">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="14">
-        <v>55</v>
-      </c>
-      <c r="D4" s="14">
-        <v>140</v>
-      </c>
-      <c r="E4" s="14">
-        <v>160</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8">
         <v>1.8</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>7.75</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4442,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5B978-4E49-4A1C-B860-2F48D05AFACD}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,27 +4781,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Calc!I:I,"Riesgo BAJO")</f>
@@ -4493,20 +4816,20 @@
         <v>7.75</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <f>AVERAGEIF(Pacientes!C:C,"Hombre",Calc!H:H)</f>
-        <v>10.990000000000002</v>
+        <v>8.5949999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Calc!I:I,"Riesgo MODERADO")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>Pacientes!B5</f>
@@ -4517,20 +4840,20 @@
         <v>8.36</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f>AVERAGEIF(Pacientes!C:C,"Mujer",Calc!H:H)</f>
-        <v>3.1499999999999986</v>
+        <v>2.9499999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Calc!I:I,"Riesgo ALTO")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f>Pacientes!B6</f>
@@ -4554,11 +4877,11 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>Pacientes!B8</f>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <f>Calc!H6</f>
-        <v>7.4000000000000021</v>
+        <v>6.9499999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4574,10 +4897,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,32 +4915,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4631,11 +4954,11 @@
       </c>
       <c r="C4" t="str">
         <f>Calc!I2</f>
-        <v>Riesgo MODERADO</v>
+        <v>Riesgo Alto</v>
       </c>
       <c r="D4" t="str">
         <f>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$4,2,FALSE),"")</f>
-        <v>Intervención intensiva en estilo de vida; considerar estatina</v>
+        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4649,11 +4972,11 @@
       </c>
       <c r="C5" t="str">
         <f>Calc!I3</f>
-        <v>Riesgo MODERADO</v>
+        <v>Riesgo Alto</v>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(VLOOKUP(C5,Lookups!$A$2:$B$4,2,FALSE),"")</f>
-        <v>Intervención intensiva en estilo de vida; considerar estatina</v>
+        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4667,11 +4990,11 @@
       </c>
       <c r="C6" t="str">
         <f>Calc!I4</f>
-        <v>Riesgo ALTO</v>
+        <v>Riesgo Muy Alto</v>
       </c>
       <c r="D6" t="str">
         <f>IFERROR(VLOOKUP(C6,Lookups!$A$2:$B$4,2,FALSE),"")</f>
-        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4685,11 +5008,65 @@
       </c>
       <c r="C7" t="str">
         <f>Calc!I5</f>
-        <v>Riesgo MODERADO</v>
+        <v>Riesgo Bajo-Moderado</v>
       </c>
       <c r="D7" t="str">
         <f>IFERROR(VLOOKUP(C7,Lookups!$A$2:$B$4,2,FALSE),"")</f>
-        <v>Intervención intensiva en estilo de vida; considerar estatina</v>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>Calc!A6</f>
+        <v>P005</v>
+      </c>
+      <c r="B8">
+        <f>Calc!H6</f>
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Calc!I6</f>
+        <v>Riesgo Alto</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>IFERROR(VLOOKUP(C8,Lookups!$A$2:$B$4,2,FALSE),"")</f>
+        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>Calc!A7</f>
+        <v>P006</v>
+      </c>
+      <c r="B9">
+        <f>Calc!H7</f>
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Calc!I7</f>
+        <v>Riesgo Bajo-Moderado</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>IFERROR(VLOOKUP(C9,Lookups!$A$2:$B$4,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>Calc!A8</f>
+        <v>P007</v>
+      </c>
+      <c r="B10">
+        <f>Calc!H8</f>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Calc!I8</f>
+        <v>Riesgo Alto</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>IFERROR(VLOOKUP(C10,Lookups!$A$2:$B$4,2,FALSE),"")</f>
+        <v>Iniciar estatina alta intensidad y seguimiento estrecho</v>
       </c>
     </row>
   </sheetData>
@@ -4717,34 +5094,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4769,73 +5146,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4855,73 +5232,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
+++ b/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Archivos varios\Excel para SCORE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865F58A-2DA4-4E7D-9FB7-6A42FE519EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04480C02-0BA9-49BC-BD24-6F0E09EA814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,6 @@
     <sheet name="About_ISSUNNE" sheetId="5" r:id="rId7"/>
     <sheet name="About" sheetId="6" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Gráficos!$E$2:$E$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -393,11 +385,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -409,33 +401,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -469,6 +434,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3252,6 +3244,69 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9858375" cy="285750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E50EF3-BBE1-C9D1-DF5E-50C98627DBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4210050"/>
+          <a:ext cx="9858375" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1000" i="1"/>
+            <a:t>Nota ISSUNNE: SCORE2 es para prevención primaria. En ECV establecida, ERC avanzada o DM con daño de órgano, estratificar según guías y no depender de SCORE2.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3394,7 +3449,7 @@
     <tableColumn id="3" xr3:uid="{AF215800-7DC7-47CA-93FE-87ACD0EE8FEB}" name="HDL_mmol">
       <calculatedColumnFormula xml:space="preserve"> Pacientes!G4/38.67</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D17D713E-5301-4561-B34A-81916582708D}" name="Edad_SCORE" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{D17D713E-5301-4561-B34A-81916582708D}" name="Edad_SCORE" dataDxfId="7">
       <calculatedColumnFormula>IF(Pacientes!B4&lt;45,40,
  IF(Pacientes!B4&lt;50,45,
  IF(Pacientes!B4&lt;55,50,
@@ -3404,26 +3459,26 @@
  IF(Pacientes!B4&lt;75,70,
  IF(Pacientes!B4&lt;80,75,80))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A376A199-971B-42BD-A253-CB9B387D96CE}" name="PAS_SCORE" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{A376A199-971B-42BD-A253-CB9B387D96CE}" name="PAS_SCORE" dataDxfId="6">
       <calculatedColumnFormula>IF(Pacientes!E4&lt;130,120,
  IF(Pacientes!E4&lt;150,140,
  IF(Pacientes!E4&lt;170,160,180)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AAAD112D-EED9-49F8-88B7-84CF571FB8DB}" name="noHDL_SCORE" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{AAAD112D-EED9-49F8-88B7-84CF571FB8DB}" name="noHDL_SCORE" dataDxfId="5">
       <calculatedColumnFormula>IF(Pacientes!F4&lt;145,130,
  IF(Pacientes!F4&lt;175,160,
  IF(Pacientes!F4&lt;205,190,220)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{DC5EF876-9584-4C93-A271-3A96E25D845C}" name="Modelo" dataDxfId="4">
       <calculatedColumnFormula>IF(Pacientes!B4&gt;=70,"SCORE2-OP","SCORE2")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{38AE69DC-DAA4-40CF-A50B-C55B16ECBCBE}" name="Riesgo_10y_%" dataDxfId="3">
       <calculatedColumnFormula>IF(Pacientes!C4="Hombre",
     IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.14*Pacientes!B4 + 0.08*Pacientes!E4 + 0.04*(Pacientes!F4-Pacientes!G4)-16), (0.11*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-12)),
     IF(OR(Pacientes!D4="Si", Pacientes!D4="Sí"), (0.1*Pacientes!B4 + 0.06*Pacientes!E4 + 0.03*(Pacientes!F4-Pacientes!G4)-11), (0.08*Pacientes!B4 + 0.05*Pacientes!E4 + 0.02*(Pacientes!F4-Pacientes!G4)-9))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{FEEFEA61-8D1B-446B-81FB-BA5E0FAF4335}" name="Categoria" dataDxfId="2">
       <calculatedColumnFormula>IF(G2="SCORE2",
     IF(H2&lt;5,"Riesgo Bajo-Moderado",
        IF(H2&lt;10,"Riesgo Alto",
@@ -3441,7 +3496,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}" name="Tabla8" displayName="Tabla8" ref="A1:G5" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}" name="Tabla8" displayName="Tabla8" ref="A1:G5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:G5" xr:uid="{1BDE7302-8FF6-49D9-B564-50F2FF09F520}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B79147FB-457D-4FE7-B9A3-D5857644AD36}" name="Modelo"/>
@@ -3508,7 +3563,7 @@
     <tableColumn id="3" xr3:uid="{5DBE0A4C-2E5F-47BC-9E11-8AE748456E46}" name="Categoria">
       <calculatedColumnFormula>Calc!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{2298EC31-7292-4B27-BB0F-CC5CA1D14919}" name="Conducta" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(VLOOKUP(C4,Lookups!$A$2:$B$4,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3815,7 +3870,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4096,7 +4151,8 @@
     <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4110,8 +4166,9 @@
     <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4600,13 +4657,13 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Riesgo ALTO">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Riesgo ALTO">
       <formula>NOT(ISERROR(SEARCH("Riesgo ALTO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Riesgo MODERADO">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Riesgo MODERADO">
       <formula>NOT(ISERROR(SEARCH("Riesgo MODERADO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Riesgo BAJO">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Riesgo BAJO">
       <formula>NOT(ISERROR(SEARCH("Riesgo BAJO",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5146,7 +5203,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="11"/>
@@ -5156,7 +5213,7 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="11"/>
@@ -5166,7 +5223,7 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="11"/>
@@ -5176,7 +5233,7 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="11"/>
@@ -5186,7 +5243,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="11"/>
@@ -5196,7 +5253,7 @@
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="11"/>
@@ -5232,7 +5289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="11"/>

--- a/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
+++ b/Archivos varios/Excel para SCORE2/SCORE2_PruebaFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Archivos varios\Excel para SCORE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04480C02-0BA9-49BC-BD24-6F0E09EA814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B504D1-506C-4F21-AF45-BB6B361C1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pacientes" sheetId="1" r:id="rId1"/>
@@ -3869,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5B978-4E49-4A1C-B860-2F48D05AFACD}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5139,7 +5139,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
